--- a/url_list/topsitesAlexa/results.xlsx
+++ b/url_list/topsitesAlexa/results.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lwyeluo/Workspaces/lab-project/browser/tim-evaluate/url_list/topsitesAlexa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7512E257-EECC-4440-807D-3208203664DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB812670-7FB1-9449-AF65-B8C47AB444F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" activeTab="5" xr2:uid="{A38FA40B-9AA0-234E-B7A1-9A1E5346C45F}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" activeTab="1" xr2:uid="{A38FA40B-9AA0-234E-B7A1-9A1E5346C45F}"/>
   </bookViews>
   <sheets>
     <sheet name="distribution" sheetId="2" r:id="rId1"/>
     <sheet name="embeddedFrames" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
-    <sheet name="distribution after filtering" sheetId="3" r:id="rId4"/>
-    <sheet name="Vulnerability" sheetId="6" r:id="rId5"/>
-    <sheet name="Vulnerability-filter" sheetId="7" r:id="rId6"/>
+    <sheet name="frame-chain categories" sheetId="8" r:id="rId4"/>
+    <sheet name="distribution after filtering" sheetId="3" r:id="rId5"/>
+    <sheet name="Vulnerability" sheetId="6" r:id="rId6"/>
+    <sheet name="Vulnerability-filter" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="209">
   <si>
     <t>length</t>
   </si>
@@ -612,6 +613,51 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>web pages having frame chain's length bigger than 1</t>
+  </si>
+  <si>
+    <t>two frames in frame chain are cross-origin</t>
+  </si>
+  <si>
+    <t>all frames in frame chain are same origin, but two of them have cross-origin parents</t>
+  </si>
+  <si>
+    <t>all frames in frame chain are same origin, and their parents are same-origin</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>readystatechange</t>
+  </si>
+  <si>
+    <t>unload</t>
+  </si>
+  <si>
+    <t>visibilitychange</t>
+  </si>
+  <si>
+    <t>pageshow</t>
+  </si>
+  <si>
+    <t>resize</t>
+  </si>
+  <si>
+    <t>transitionend</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Type-1</t>
+  </si>
+  <si>
+    <t>Type-2</t>
+  </si>
+  <si>
+    <t>Type-3</t>
   </si>
 </sst>
 </file>
@@ -3046,6 +3092,331 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct5">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8CF2-2B41-95F3-0842DD10BCF2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8CF2-2B41-95F3-0842DD10BCF2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct50">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8CF2-2B41-95F3-0842DD10BCF2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1409558318484525E-2"/>
+                  <c:y val="4.282407407407407E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8CF2-2B41-95F3-0842DD10BCF2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.3372388185990045E-2"/>
+                  <c:y val="-0.22854913969087198"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8CF2-2B41-95F3-0842DD10BCF2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'frame-chain categories'!$D$3:$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Type-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Type-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Type-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'frame-chain categories'!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4044</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CF2-2B41-95F3-0842DD10BCF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
@@ -3132,6 +3503,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4641,6 +5052,520 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr/>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4759,6 +5684,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7907AE40-2FD9-F841-BE52-A3AF4842F17D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5066,8 +6032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C371DC-14ED-6D48-808B-91BCD9EC4760}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6970,8 +7936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE8D7A8-74BF-984E-B3D4-6341EA5AE80F}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7269,6 +8235,7 @@
     <sortCondition descending="1" ref="A15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7277,7 +8244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C24EB4-2871-7F40-A7B3-30C707E0A08E}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
@@ -8126,6 +9093,177 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D924CB1B-C55F-224C-9677-1406A0BD83D0}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1">
+        <v>20838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3">
+        <v>4044</v>
+      </c>
+      <c r="C3">
+        <f>B3/B1</f>
+        <v>0.19406852864958249</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4">
+        <v>775</v>
+      </c>
+      <c r="C4">
+        <f>B4/B1</f>
+        <v>3.7191669066129189E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5">
+        <v>16019</v>
+      </c>
+      <c r="C5">
+        <f>B5/B1</f>
+        <v>0.76873980228428829</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <f>B7/C15</f>
+        <v>4.945598417408506E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8">
+        <v>3739</v>
+      </c>
+      <c r="C8">
+        <f>B8/C15</f>
+        <v>0.92457962413452033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9">
+        <v>244</v>
+      </c>
+      <c r="C9">
+        <f>B9/C15</f>
+        <v>6.0336300692383778E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <f>B10/C15</f>
+        <v>3.4619188921859545E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <f>B11/C15</f>
+        <v>3.956478733926805E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <f>B12/C15</f>
+        <v>9.8911968348170125E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <f>B13/C15</f>
+        <v>9.8911968348170125E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f>B14/C15</f>
+        <v>7.4183976261127599E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f>SUM(B7:B14)</f>
+        <v>4044</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF18703-75A0-3440-A360-911BB1F409CB}">
   <dimension ref="A1:J98"/>
   <sheetViews>
@@ -8981,7 +10119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F74EC4-9364-AE4E-9FF7-FFA398EBA125}">
   <dimension ref="A1:D35"/>
   <sheetViews>
@@ -9489,11 +10627,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882EC04D-382E-7449-9116-001130232044}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
